--- a/biology/Zoologie/Australorp/Australorp.xlsx
+++ b/biology/Zoologie/Australorp/Australorp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'australorp est une race de poule domestique. Elle est reconnue parmi les 108 races de poule du British Poultry Standard.
 </t>
@@ -511,14 +523,86 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une volaille à deux fins, à croissance et de ponte précoce, élégante avec un plumage abondant mais non bouffant.
-Origine
-Comme son nom l'indique, elle est originaire d'Australie et est issue d'une sélection d'orpington noire, dont elle serait le type ancien. Elle est sélectionnée par la suite en Grande-Bretagne qui en revendique la paternité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Australorp</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Australorp</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme son nom l'indique, elle est originaire d'Australie et est issue d'une sélection d'orpington noire, dont elle serait le type ancien. Elle est sélectionnée par la suite en Grande-Bretagne qui en revendique la paternité.
 La forme naine a été fixée en Allemagne à partir de la grande race avec l'orpington, la croad-langshan et la barnevelder naines.
-Standard
-Crête : simple
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Australorp</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Australorp</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crête : simple
 Oreillons : rouges
 Couleur des yeux : noirs
 peau : blanche
